--- a/plots/countries/plot data/Russia.xlsx
+++ b/plots/countries/plot data/Russia.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>231.710986121782</v>
+        <v>231.798448017999</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>590.576194977194</v>
+        <v>590.576021392581</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>288.981434226808</v>
+        <v>290.623236682508</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>211.60497933957</v>
+        <v>211.60403270409</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>320.120211908209</v>
+        <v>320.227050259643</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>274.945683434107</v>
+        <v>274.762060260404</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-541.339027859046</v>
+        <v>-720.310625606915</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>53.1016460899791</v>
+        <v>56.1849065566806</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>221.077987006178</v>
+        <v>221.055700301228</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>560.390873329962</v>
+        <v>560.390703720698</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>274.837765666811</v>
+        <v>276.505088527212</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>215.803439897439</v>
+        <v>215.802512194668</v>
       </c>
     </row>
     <row r="15">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>311.375342815901</v>
+        <v>311.488751335682</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>252.625273056148</v>
+        <v>252.449652607871</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-605.918398172276</v>
+        <v>-929.611080884926</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>53.0379537139135</v>
+        <v>56.1231627053077</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>208.814272272617</v>
+        <v>208.718385727385</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>314.672345175676</v>
+        <v>310.815271664042</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>261.271024679125</v>
+        <v>262.957796162624</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>253.433415761599</v>
+        <v>253.553394449726</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>225.60393569629</v>
+        <v>225.434961162861</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-650.57161985188</v>
+        <v>-996.478458547854</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>52.119208395277</v>
+        <v>55.3361124528334</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>192.236571503703</v>
+        <v>192.114133517025</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>303.751145437124</v>
+        <v>302.514881657595</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>245.18234826255</v>
+        <v>246.825944923382</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>231.696980787672</v>
+        <v>231.823529644146</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>194.658019179377</v>
+        <v>194.496567504259</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-851.376387320899</v>
+        <v>-1141.98454921631</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2397900964057</v>
+        <v>55.4669467920556</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>170.283159848475</v>
+        <v>170.119306717661</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>247.315591494781</v>
+        <v>245.533417414297</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>227.430214130126</v>
+        <v>229.063478331693</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>215.920617547261</v>
+        <v>216.053736572082</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>170.29600063007</v>
+        <v>170.161030688928</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-1010.44227152873</v>
+        <v>-1330.9565909072</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>51.7264305246633</v>
+        <v>54.9673866946705</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>148.99950482378</v>
+        <v>148.810774794844</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>238.666375984907</v>
+        <v>236.85535167274</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>224.322533738085</v>
+        <v>225.922104671415</v>
       </c>
     </row>
     <row r="50">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>207.529503132167</v>
+        <v>207.669192325335</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>178.455044363816</v>
+        <v>178.319920055891</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-1105.88678029851</v>
+        <v>-1421.38254907079</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>52.2051994199795</v>
+        <v>55.4439843134594</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>136.352333308323</v>
+        <v>136.200827445196</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>205.489847050737</v>
+        <v>204.082709000698</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>222.302302769279</v>
+        <v>223.914404291695</v>
       </c>
     </row>
     <row r="59">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>198.470077473808</v>
+        <v>198.625062244911</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>162.822550824589</v>
+        <v>162.689412575385</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-1139.83455607839</v>
+        <v>-1173.06888776181</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>52.3212087618029</v>
+        <v>55.5626359337625</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>124.326270941859</v>
+        <v>124.157131386777</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>200.115910854627</v>
+        <v>199.367863411828</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>219.196152647596</v>
+        <v>220.713469590099</v>
       </c>
     </row>
     <row r="68">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>184.337732421903</v>
+        <v>184.508012770942</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>162.822534607052</v>
+        <v>162.687636576943</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-1203.07348522612</v>
+        <v>-1432.309376243</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>53.156301626755</v>
+        <v>56.4119020156226</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>110.393207918638</v>
+        <v>110.253950049393</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>185.808831091686</v>
+        <v>185.535677970637</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>215.224513508641</v>
+        <v>216.801161153631</v>
       </c>
     </row>
     <row r="77">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>192.019842429166</v>
+        <v>192.205418356139</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>154.669094122386</v>
+        <v>154.558490637287</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-1238.34954399939</v>
+        <v>-1123.75817596915</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>54.0159656031253</v>
+        <v>57.2551348964901</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>103.101272822661</v>
+        <v>102.96631636482</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>213.992262660911</v>
+        <v>213.155447722234</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>223.160487549368</v>
+        <v>224.722350905399</v>
       </c>
     </row>
     <row r="86">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>186.342090713461</v>
+        <v>186.54296221837</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>175.262749181422</v>
+        <v>175.109332881791</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-1311.99188501036</v>
+        <v>-1501.73251704593</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>55.3255372647302</v>
+        <v>58.5809449839606</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>103.231878650919</v>
+        <v>103.116842489284</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>192.475163330036</v>
+        <v>192.421702828221</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>221.136461506079</v>
+        <v>227.444329052744</v>
       </c>
     </row>
     <row r="95">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>174.018720611549</v>
+        <v>174.234887694393</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>190.867902054974</v>
+        <v>191.603471622329</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-1288.59843507856</v>
+        <v>-1385.99496718475</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>56.3910816058354</v>
+        <v>59.6445373431815</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>100.815309428149</v>
+        <v>100.725930070719</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>206.598859210553</v>
+        <v>206.58200346334</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>223.199602098522</v>
+        <v>223.152199396847</v>
       </c>
     </row>
     <row r="104">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>178.130269643476</v>
+        <v>178.527242092768</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>189.743906946478</v>
+        <v>190.558179930576</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-1410.35566604513</v>
+        <v>-1491.91753345593</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>57.7329334682679</v>
+        <v>60.994709504569</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>99.8342931666631</v>
+        <v>100.256581570231</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>184.482107041509</v>
+        <v>184.467010972356</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>228.625301476045</v>
+        <v>227.40662611094</v>
       </c>
     </row>
     <row r="113">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>185.450608381441</v>
+        <v>186.028386197181</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>186.793497578426</v>
+        <v>187.194219466922</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-1448.97530929198</v>
+        <v>-1426.26100534609</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>59.1012912339436</v>
+        <v>62.2420010960976</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>97.6963630540435</v>
+        <v>98.1571765329537</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>190.94648154818</v>
+        <v>190.924738403741</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>234.228877992604</v>
+        <v>231.623754494844</v>
       </c>
     </row>
     <row r="122">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>194.058963410275</v>
+        <v>194.817546592463</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>191.387125226038</v>
+        <v>191.708398120109</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-1534.72702468116</v>
+        <v>-1295.34340847307</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>60.4381518460072</v>
+        <v>63.649188704457</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>94.5461854190847</v>
+        <v>94.5280196452575</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>185.927540729558</v>
+        <v>185.917119386911</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>239.790814939351</v>
+        <v>235.760200694251</v>
       </c>
     </row>
     <row r="131">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>205.421900858762</v>
+        <v>206.361289407398</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>204.34535383425</v>
+        <v>204.325985013569</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-1688.96036363047</v>
+        <v>-1704.07537750285</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>61.7931344150802</v>
+        <v>65.0925858523189</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>89.5619362356337</v>
+        <v>89.5533001920658</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>170.650891698581</v>
+        <v>170.65068072067</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>241.232609726073</v>
+        <v>235.487175864601</v>
       </c>
     </row>
     <row r="140">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>207.67395694508</v>
+        <v>208.794150860164</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>206.746002513454</v>
+        <v>206.034517453296</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-1682.16089884169</v>
+        <v>-1639.79118896793</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>63.4887397771928</v>
+        <v>66.8997792685899</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>87.5419746664892</v>
+        <v>87.5596878359189</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>179.16362898866</v>
+        <v>179.163422511064</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>243.134909646908</v>
+        <v>235.834409443436</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>214.717110015259</v>
+        <v>216.008817674471</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>215.120416432635</v>
+        <v>213.412213349938</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-1603.91466180954</v>
+        <v>-1667.45320174346</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>65.1336022020543</v>
+        <v>68.6080130207017</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>89.8796599861397</v>
+        <v>89.9183771983516</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>179.839884661759</v>
+        <v>179.839678993854</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>245.118440811683</v>
+        <v>236.251047372028</v>
       </c>
     </row>
     <row r="158">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>221.323083291184</v>
+        <v>222.786304694524</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>216.872840982681</v>
+        <v>215.096395554725</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-1714.77280521128</v>
+        <v>-1716.75023880119</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>67.2467089319056</v>
+        <v>70.842557260533</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>94.0658425705592</v>
+        <v>94.1197479879566</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>190.374461981916</v>
+        <v>190.374254532369</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>223.817368389811</v>
+        <v>215.13167961899</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>227.284846129597</v>
+        <v>228.919581277065</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>208.186128089331</v>
+        <v>206.408212174298</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-1648.124784179</v>
+        <v>-1632.56959571153</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>68.861796892302</v>
+        <v>72.6316637243432</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>92.3708242785073</v>
+        <v>92.4334304542481</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>181.423924130188</v>
+        <v>181.42371645534</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>203.859298415753</v>
+        <v>193.641013676402</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>212.642903131855</v>
+        <v>214.449152023451</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>183.389904352498</v>
+        <v>180.961937479629</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-1712.79382109315</v>
+        <v>-1692.57789843025</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>70.3000413629722</v>
+        <v>74.2094001351385</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>89.027377631502</v>
+        <v>89.0982718016843</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>176.901716007206</v>
+        <v>176.901491945953</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>220.713492982983</v>
+        <v>208.433528976046</v>
       </c>
     </row>
     <row r="185">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>229.2452609958</v>
+        <v>230.644592224407</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>200.413108220125</v>
+        <v>197.652028557005</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-1784.29101976515</v>
+        <v>-1677.25122273209</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>71.9009156544353</v>
+        <v>75.9414633432699</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>90.9565856094907</v>
+        <v>91.0323103204187</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>189.917376812354</v>
+        <v>189.917152385151</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>222.073888686001</v>
+        <v>207.628136301899</v>
       </c>
     </row>
     <row r="194">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>239.406945401882</v>
+        <v>240.796411185232</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>203.881778182095</v>
+        <v>200.850367910826</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-1415.73507144195</v>
+        <v>-1311.31009740757</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>74.3194530541493</v>
+        <v>78.4912874074219</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>90.2200594419723</v>
+        <v>90.3010360147819</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>171.395055214328</v>
+        <v>171.394826988204</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>218.462860406261</v>
+        <v>201.509408201714</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>151.060682294009</v>
+        <v>151.09100128326</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>232.898773205475</v>
+        <v>234.223958457458</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>219.74362858153</v>
+        <v>216.572306421111</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-997.351302869473</v>
+        <v>-901.288262970979</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>76.2266647230147</v>
+        <v>80.5648190868984</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>92.4655816882397</v>
+        <v>92.5454786736264</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>173.361066223082</v>
+        <v>173.360821989491</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>204.804312642111</v>
+        <v>187.01091596432</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>143.648703271591</v>
+        <v>143.658813968331</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>236.943742342505</v>
+        <v>238.141409382332</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>224.236266968279</v>
+        <v>220.266256051426</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-1389.23689818745</v>
+        <v>-1384.75908077621</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>78.111423435844</v>
+        <v>82.4969877873759</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>92.2023329556971</v>
+        <v>92.2919564317416</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>177.978196547396</v>
+        <v>177.977953084927</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>185.393815820077</v>
+        <v>165.554932327704</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>138.779254493617</v>
+        <v>138.793284335961</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>249.722455204205</v>
+        <v>250.804376938315</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>224.550480411642</v>
+        <v>221.195409489498</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-1253.27076449289</v>
+        <v>-1205.42172050276</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>79.8322732116292</v>
+        <v>84.258633722935</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>93.1262122674175</v>
+        <v>93.2358643611134</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>188.417383118085</v>
+        <v>188.417135624741</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>172.034150878146</v>
+        <v>149.587699702281</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>144.99391819595</v>
+        <v>145.007120033766</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>265.732252685597</v>
+        <v>266.784841801399</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>222.399944342601</v>
+        <v>218.956041276312</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-1219.39838195713</v>
+        <v>-1158.19028816739</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>81.1187857036541</v>
+        <v>85.4949761404412</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>96.0158528037092</v>
+        <v>95.783663598295</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>192.307152164312</v>
+        <v>192.306893606268</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>170.4105488508</v>
+        <v>147.931678701507</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>164.776124227914</v>
+        <v>164.786095556389</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>247.423834896899</v>
+        <v>248.522641099316</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>222.4282178683</v>
+        <v>217.216762824322</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-1113.4174113581</v>
+        <v>-1024.4090363582</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>82.1531385744466</v>
+        <v>86.3715979927276</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>96.8054430876249</v>
+        <v>96.4706527033739</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>203.698148534505</v>
+        <v>203.69791717914</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>180.405771191978</v>
+        <v>154.698475933537</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>176.966900059335</v>
+        <v>176.981475022318</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>246.966612008873</v>
+        <v>248.064518023928</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>230.178937577027</v>
+        <v>225.779398399396</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-1201.13320647366</v>
+        <v>-1146.1282331927</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>83.1693524868347</v>
+        <v>87.1760886044177</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>96.3806510158617</v>
+        <v>96.2627987046018</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>227.583636905345</v>
+        <v>227.583991715003</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>195.581347681158</v>
+        <v>168.428693899368</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>165.425428731478</v>
+        <v>165.038713534556</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>253.10263967636</v>
+        <v>254.392548745554</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>240.076816486342</v>
+        <v>236.656654740605</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-1083.2270916869</v>
+        <v>-1034.94141655617</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>84.1082604761553</v>
+        <v>87.8509454263007</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>97.2819039425633</v>
+        <v>97.7910931371207</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>233.342624880155</v>
+        <v>233.34398843166</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>209.985202506871</v>
+        <v>178.709168213439</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>159.228821543994</v>
+        <v>159.053035508734</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>811.251143288042</v>
+        <v>813.318364205036</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>246.040160394354</v>
+        <v>247.730794197842</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>235.672115105595</v>
+        <v>232.131700037023</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-937.77713062513</v>
+        <v>-918.737163549264</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>84.4644052728222</v>
+        <v>87.9791737388067</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>100.099727166322</v>
+        <v>100.518995450462</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>181.049946153341</v>
+        <v>181.052819803383</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>197.512422508057</v>
+        <v>167.860967810481</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>147.211339601281</v>
+        <v>147.948371590583</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>819.764155584774</v>
+        <v>820.709569675048</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>228.141340669621</v>
+        <v>230.08260942929</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>242.250893594604</v>
+        <v>239.322564804838</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-1194.06569021264</v>
+        <v>-1097.21557144124</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>85.2415198501298</v>
+        <v>88.4702667039369</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>101.914344877645</v>
+        <v>101.200664861927</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>185.228055390085</v>
+        <v>216.258426663513</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>211.584828934636</v>
+        <v>177.850636255309</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>167.555069065512</v>
+        <v>149.640110023178</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>866.085812717759</v>
+        <v>836.803119999563</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>229.581567392883</v>
+        <v>211.888816151619</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>250.709171492386</v>
+        <v>247.331041845296</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-961.536522695498</v>
+        <v>-750.019192954486</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>85.4869108981023</v>
+        <v>88.3102385287017</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>102.339136249285</v>
+        <v>101.747439790211</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>189.644678627122</v>
+        <v>214.679832478623</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>206.800016492511</v>
+        <v>172.021528693175</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>155.065200247464</v>
+        <v>148.132386497404</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>819.821449000852</v>
+        <v>832.816618319123</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>241.930545652374</v>
+        <v>228.945626314319</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>240.589753260402</v>
+        <v>238.70143878187</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-1228.83804640743</v>
+        <v>-1181.33789225676</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>85.8360421118125</v>
+        <v>88.0212271137364</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>101.20076885259</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>217.088930665656</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>173.024042649982</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>153.218194719192</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>860.928539466026</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>245.243614757115</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>244.30479291285</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-1171.7581186878</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>87.8757034467321</v>
       </c>
     </row>
   </sheetData>
